--- a/Data/EC/NIT-8070036548.xlsx
+++ b/Data/EC/NIT-8070036548.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{0BF223A7-4942-40A4-B8B8-BAEF406E65C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FEB3818B-CAA2-4ADB-891B-2C0E62FD986F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{B9ABA9B6-73FF-477C-9620-6DBAA9A25764}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{80F25AF4-BC1B-4C0B-91D2-1BEEA3B8F1D9}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -65,19 +65,19 @@
     <t>CC</t>
   </si>
   <si>
+    <t>20351521</t>
+  </si>
+  <si>
+    <t>BLADIMIR PACHECO AYALA</t>
+  </si>
+  <si>
+    <t>2203</t>
+  </si>
+  <si>
     <t>1092345081</t>
   </si>
   <si>
     <t>CARLOS HUMBERTO MALDONADO RANGEL</t>
-  </si>
-  <si>
-    <t>2203</t>
-  </si>
-  <si>
-    <t>20351521</t>
-  </si>
-  <si>
-    <t>BLADIMIR PACHECO AYALA</t>
   </si>
   <si>
     <t>2204</t>
@@ -503,7 +503,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E60BAB8F-22F6-FD1B-0457-71F4E1170BFE}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{B44D0BC5-06BA-F6F3-0B41-3B94865392DE}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -854,7 +854,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6F2D984-923F-45D5-9749-F6C284239FAB}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{857CE51F-9EFB-432A-8C5D-385C085BF0DE}">
   <dimension ref="B2:J25"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
@@ -1052,7 +1052,7 @@
         <v>13</v>
       </c>
       <c r="E17" s="16" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="F17" s="18">
         <v>40000</v>
@@ -1069,13 +1069,13 @@
         <v>8</v>
       </c>
       <c r="C18" s="16" t="s">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="D18" s="17" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="E18" s="16" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="F18" s="18">
         <v>40000</v>
